--- a/biology/Zoologie/Baleine_à_bec_de_Travers/Baleine_à_bec_de_Travers.xlsx
+++ b/biology/Zoologie/Baleine_à_bec_de_Travers/Baleine_à_bec_de_Travers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Baleine_%C3%A0_bec_de_Travers</t>
+          <t>Baleine_à_bec_de_Travers</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mesoplodon traversii
 La baleine à bec de Travers (Mesoplodon traversii) est une espèce de cétacés de la famille des Ziphiidae ou baleines à bec.
-Elle était connue uniquement sur la base de morceaux de squelette jusqu'en décembre 2010, quand deux individus, une mère de 5 m et son petit, ont été retrouvés entiers sur une plage en Nouvelle-Zélande. D'abord attribués à la baleine à bec de Gray (Mesoplodon grayi), les spécimens ont pu être identifiés correctement après une étude de leur ADN[1].
+Elle était connue uniquement sur la base de morceaux de squelette jusqu'en décembre 2010, quand deux individus, une mère de 5 m et son petit, ont été retrouvés entiers sur une plage en Nouvelle-Zélande. D'abord attribués à la baleine à bec de Gray (Mesoplodon grayi), les spécimens ont pu être identifiés correctement après une étude de leur ADN.
 Aucune observation attestée de cette baleine vivante n'a été jusqu'à présent enregistrée.
-Le nom de cet animal commémore Henry Hammersley Travers (en), qui en a découvert en 1872 le premier os connu[2].
+Le nom de cet animal commémore Henry Hammersley Travers (en), qui en a découvert en 1872 le premier os connu.
 Elle est maintenant la baleine la plus rare du monde, place occupée auparavant par la baleine à bec de Longman.
 </t>
         </is>
